--- a/АД.xlsx
+++ b/АД.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Andrey\PythonProject\course_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F93CD34-7E00-4EEB-B748-93C02A3DBD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463B9FB4-18F8-4194-B2F9-FD767D0A9CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Дата</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Начал прием "Престариум"</t>
+  </si>
+  <si>
+    <t>На работе</t>
+  </si>
+  <si>
+    <t>Дома</t>
+  </si>
+  <si>
+    <t>Посидел 20 минут.</t>
   </si>
 </sst>
 </file>
@@ -362,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +417,9 @@
       <c r="E2">
         <v>104</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -425,6 +437,9 @@
       <c r="E3">
         <v>104</v>
       </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -442,6 +457,9 @@
       <c r="E4">
         <v>67</v>
       </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -459,6 +477,9 @@
       <c r="E5">
         <v>60</v>
       </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -527,6 +548,9 @@
       <c r="E9">
         <v>46</v>
       </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -544,6 +568,9 @@
       <c r="E10">
         <v>88</v>
       </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -641,7 +668,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45795</v>
       </c>
@@ -654,8 +681,11 @@
       <c r="D17">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45795</v>
       </c>
@@ -671,8 +701,11 @@
       <c r="E18">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45795</v>
       </c>
@@ -688,8 +721,11 @@
       <c r="E19">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45795</v>
       </c>
@@ -705,8 +741,11 @@
       <c r="E20">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45795</v>
       </c>
@@ -722,8 +761,11 @@
       <c r="E21">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45796</v>
       </c>
@@ -740,7 +782,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45796</v>
       </c>
@@ -757,7 +799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45796</v>
       </c>
@@ -774,7 +816,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45796</v>
       </c>
@@ -791,7 +833,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45796</v>
       </c>
@@ -808,7 +850,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45796</v>
       </c>
@@ -822,7 +864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45797</v>
       </c>
@@ -839,7 +881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45797</v>
       </c>
@@ -856,7 +898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45797</v>
       </c>
@@ -873,7 +915,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45797</v>
       </c>
@@ -890,7 +932,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45797</v>
       </c>
@@ -905,6 +947,86 @@
       </c>
       <c r="E32">
         <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.19305555555555556</v>
+      </c>
+      <c r="C33">
+        <v>123</v>
+      </c>
+      <c r="D33">
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C34">
+        <v>135</v>
+      </c>
+      <c r="D34">
+        <v>96</v>
+      </c>
+      <c r="E34">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C35">
+        <v>148</v>
+      </c>
+      <c r="D35">
+        <v>94</v>
+      </c>
+      <c r="E35">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C36">
+        <v>138</v>
+      </c>
+      <c r="D36">
+        <v>94</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
